--- a/book_requests.xlsx
+++ b/book_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,118 @@
           <t>Edition</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PRAJAKTA LIMBORE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Marshal Wallace</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pokimon</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sanjiv Ajay Jadhav</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>poi</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Marshal Wallace</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pokimon</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>koba chan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Marshal Wallace</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pokimon</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/book_requests.xlsx
+++ b/book_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,111 +469,93 @@
           <t>Publisher</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Submit Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRAJAKTA LIMBORE</t>
+          <t>Prof. Arunima</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
+          <t>Consumer Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cyber Security</t>
+          <t>Consumer Behavior 101</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Marshal Wallace</t>
+          <t>Schiffman, Kanuk, Kumar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pokimon</t>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sanjiv Ajay Jadhav</t>
+          <t>Prof. Arun Kumar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>poi</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
+          <t>Consumer Behavior II</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cyber Security</t>
+          <t>Consumer Behavior 202</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Marshal Wallace</t>
+          <t>Schiffman, Kanuk, Vikas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pokimon</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>koba chan</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cyber Security</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Marshal Wallace</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pokimon</t>
+          <t>Bearson</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
         </is>
       </c>
     </row>
